--- a/편의시설 영업시간.xlsx
+++ b/편의시설 영업시간.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1204j\Desktop\소창프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F828855-3017-4411-A386-3CF5A3C05D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6525399-DA20-4F7C-846B-DBD130BCC422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{535D439E-B92C-4BE7-A214-336D68E74F6B}"/>
   </bookViews>
@@ -174,10 +174,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10:00~17:0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>8:00~18:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -186,10 +182,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11:00~!7:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10:00~19:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -211,6 +203,14 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:00~7:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00~17:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -257,14 +257,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -584,7 +581,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -597,14 +594,14 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -614,12 +611,12 @@
         <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A3" s="2" t="s">
-        <v>43</v>
+      <c r="A3" t="s">
+        <v>41</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -628,12 +625,12 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A4" s="2" t="s">
-        <v>43</v>
+      <c r="A4" t="s">
+        <v>41</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -642,12 +639,12 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A5" s="2" t="s">
-        <v>43</v>
+      <c r="A5" t="s">
+        <v>41</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -656,12 +653,12 @@
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A6" s="2" t="s">
-        <v>43</v>
+      <c r="A6" t="s">
+        <v>41</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -674,8 +671,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A7" s="2" t="s">
-        <v>43</v>
+      <c r="A7" t="s">
+        <v>41</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -684,96 +681,96 @@
         <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A9" s="2" t="s">
-        <v>43</v>
+      <c r="A9" t="s">
+        <v>41</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A10" s="2" t="s">
-        <v>43</v>
+      <c r="A10" t="s">
+        <v>41</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A11" s="2" t="s">
-        <v>43</v>
+      <c r="A11" t="s">
+        <v>41</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A12" s="2" t="s">
-        <v>43</v>
+      <c r="A12" t="s">
+        <v>41</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A13" s="2" t="s">
-        <v>43</v>
+      <c r="A13" t="s">
+        <v>41</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A14" s="2" t="s">
-        <v>43</v>
+      <c r="A14" t="s">
+        <v>41</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -782,12 +779,12 @@
         <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A15" s="2" t="s">
-        <v>43</v>
+      <c r="A15" t="s">
+        <v>41</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
@@ -796,7 +793,7 @@
         <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.6">
@@ -807,10 +804,10 @@
         <v>16</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.6">
@@ -821,7 +818,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
         <v>26</v>
@@ -835,7 +832,7 @@
         <v>21</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
         <v>25</v>
